--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/sege_sum-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/sege_sum-raw-ss-lookup-tabbed-age.xlsx
@@ -359,7 +359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -379,175 +379,175 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>130</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>130</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>130</v>
@@ -571,9 +571,17 @@
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>130</v>
       </c>
     </row>
@@ -584,7 +592,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -604,183 +612,183 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>130</v>
@@ -788,7 +796,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>130</v>
@@ -796,9 +804,17 @@
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>130</v>
       </c>
     </row>
@@ -809,7 +825,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -829,191 +845,191 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>130</v>
@@ -1021,9 +1037,17 @@
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>130</v>
       </c>
     </row>
@@ -1034,7 +1058,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1054,201 +1078,209 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>130</v>
       </c>
     </row>
@@ -1259,7 +1291,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1279,201 +1311,209 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>130</v>
       </c>
     </row>
@@ -1484,7 +1524,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1504,15 +1544,15 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>64</v>
@@ -1520,185 +1560,193 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>130</v>
       </c>
     </row>
@@ -1709,7 +1757,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1729,15 +1777,15 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>60</v>
@@ -1745,185 +1793,193 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>130</v>
       </c>
     </row>
@@ -1934,7 +1990,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1954,39 +2010,39 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>60</v>
@@ -1994,161 +2050,169 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>126</v>
       </c>
     </row>
@@ -2159,7 +2223,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2179,201 +2243,209 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>119</v>
       </c>
     </row>

--- a/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/sege_sum-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODE_8.27.21_fornorms/sege_sum-raw-ss-lookup-tabbed-age.xlsx
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
@@ -470,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23">
@@ -663,7 +663,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -695,7 +695,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13">
@@ -703,7 +703,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -735,7 +735,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18">
@@ -767,7 +767,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22">
@@ -775,7 +775,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23">
@@ -783,7 +783,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24">
@@ -896,7 +896,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -928,7 +928,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13">
@@ -936,7 +936,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
@@ -944,7 +944,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
@@ -1008,7 +1008,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23">
@@ -1024,7 +1024,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25">
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -1121,7 +1121,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -1145,7 +1145,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
@@ -1233,7 +1233,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
@@ -1249,7 +1249,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -1378,7 +1378,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -1402,7 +1402,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -1410,7 +1410,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -1418,7 +1418,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
@@ -1474,7 +1474,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23">
@@ -1506,7 +1506,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27">
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -1627,7 +1627,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
@@ -1675,7 +1675,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
@@ -1723,7 +1723,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25">
@@ -1731,7 +1731,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26">
@@ -1739,7 +1739,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27">
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -1924,7 +1924,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
@@ -1956,7 +1956,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
@@ -1964,7 +1964,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26">
@@ -1972,7 +1972,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27">
@@ -2037,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -2117,7 +2117,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -2125,7 +2125,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -2133,7 +2133,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -2141,7 +2141,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
@@ -2165,7 +2165,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
@@ -2173,7 +2173,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23">
@@ -2189,7 +2189,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25">
@@ -2197,7 +2197,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
@@ -2205,7 +2205,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27">
@@ -2213,7 +2213,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2294,7 +2294,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9">
@@ -2382,7 +2382,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
@@ -2390,7 +2390,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
@@ -2398,7 +2398,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
@@ -2414,7 +2414,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
@@ -2422,7 +2422,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
@@ -2430,7 +2430,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
@@ -2438,7 +2438,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27">
@@ -2446,7 +2446,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
